--- a/structure.xlsx
+++ b/structure.xlsx
@@ -20,45 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
-  <si>
-    <t xml:space="preserve">transactionDetals</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+  <si>
+    <t xml:space="preserve">TransactionDetails</t>
   </si>
   <si>
     <t xml:space="preserve">Currency</t>
   </si>
   <si>
-    <t xml:space="preserve">acсount</t>
+    <t xml:space="preserve">Acсount</t>
   </si>
   <si>
     <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Idtransactiondetals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transactionName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idcurrency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currencyName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idaccount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idCurrency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accountName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idtransactiondetals</t>
+    <t xml:space="preserve">TransactionDetailsID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TransactionName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CurrencyID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CurrencyName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CategoryID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TransactionDetalsID</t>
   </si>
   <si>
     <t xml:space="preserve">CategoryName</t>
@@ -112,19 +112,16 @@
     <t xml:space="preserve">дети</t>
   </si>
   <si>
-    <t xml:space="preserve">моя пятая таблица</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idtransaction</t>
+    <t xml:space="preserve">MyTransaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyTransactionID</t>
   </si>
   <si>
     <t xml:space="preserve">DataTransaction</t>
   </si>
   <si>
-    <t xml:space="preserve">idcategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum</t>
+    <t xml:space="preserve">Amount</t>
   </si>
 </sst>
 </file>
@@ -135,11 +132,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -156,132 +154,21 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -292,7 +179,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -316,23 +203,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -343,15 +213,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,91 +230,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -453,29 +246,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:N20"/>
+  <dimension ref="B4:O20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="1.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="1.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="1.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="1.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,11 +286,12 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
@@ -515,18 +310,21 @@
         <v>8</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -552,13 +350,16 @@
       <c r="J6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="3" t="n">
-        <v>1</v>
+      <c r="K6" s="3" t="n">
+        <v>200</v>
       </c>
       <c r="M6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -579,18 +380,21 @@
         <v>2</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="3" t="n">
-        <v>2</v>
+      <c r="K7" s="3" t="n">
+        <v>300</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -612,13 +416,16 @@
       <c r="J8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -627,75 +434,65 @@
       <c r="C9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="M9" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="M10" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L11" s="3" t="n">
+      <c r="M11" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="M11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L12" s="3" t="n">
+      <c r="M12" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="M12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L13" s="3" t="n">
+      <c r="M13" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="M13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -718,10 +515,10 @@
         <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>8</v>
@@ -774,7 +571,7 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="M4:O4"/>
     <mergeCell ref="B15:H15"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
